--- a/config_10.27/game_activity_config.xlsx
+++ b/config_10.27/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -895,10 +895,10 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,6 +1896,9 @@
       <c r="M17" s="3">
         <v>1603727999</v>
       </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
       <c r="O17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1988,14 +1991,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2006,16 +2011,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,13 +2030,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2045,13 +2048,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_10.27/game_activity_config.xlsx
+++ b/config_10.27/game_activity_config.xlsx
@@ -895,10 +895,10 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1867,7 +1867,7 @@
         <v>94</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>95</v>
@@ -1991,16 +1991,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2011,14 +2009,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2030,13 +2030,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2048,13 +2048,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
